--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
@@ -1694,7 +1694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2437,17 +2437,73 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>703</v>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>07-25-2024</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Ứng Lương</t>
+        </is>
+      </c>
+      <c r="F27" t="n">
+        <v>1500000</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>704</v>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>07-25-2024</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>Chi Phí CTV</t>
+        </is>
+      </c>
+      <c r="F28" t="n">
+        <v>550000</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B27" t="n">
-        <v>25</v>
-      </c>
-      <c r="C27" t="inlineStr"/>
-      <c r="D27" t="inlineStr"/>
-      <c r="E27" t="inlineStr"/>
-      <c r="F27" t="n">
-        <v>28324000</v>
+      <c r="B29" t="n">
+        <v>27</v>
+      </c>
+      <c r="C29" t="inlineStr"/>
+      <c r="D29" t="inlineStr"/>
+      <c r="E29" t="inlineStr"/>
+      <c r="F29" t="n">
+        <v>30374000</v>
       </c>
     </row>
   </sheetData>
@@ -2899,7 +2955,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>5630000</v>
+        <v>6180000</v>
       </c>
     </row>
     <row r="3">
@@ -2949,7 +3005,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>14320000</v>
+        <v>15820000</v>
       </c>
     </row>
     <row r="8">
@@ -2969,7 +3025,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>28324000</v>
+        <v>30374000</v>
       </c>
     </row>
   </sheetData>
@@ -2983,7 +3039,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G21"/>
+  <dimension ref="A1:G22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3506,26 +3562,51 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
+          <t>07-25-2024</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0</v>
+      </c>
+      <c r="F21" t="n">
+        <v>2050000</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-2050000</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B22" t="n">
         <v>48150000</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C22" t="n">
         <v>42650000</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D22" t="n">
         <v>13</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E22" t="n">
         <v>3300000</v>
       </c>
-      <c r="F21" t="n">
-        <v>28324000</v>
-      </c>
-      <c r="G21" t="n">
-        <v>17626000</v>
+      <c r="F22" t="n">
+        <v>30374000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>15576000</v>
       </c>
     </row>
   </sheetData>

--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
@@ -2528,7 +2528,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Mã nhân viên</t>
+          <t>Nhân viên</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">

--- a/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
+++ b/Báo cáo/2_LONG XUYÊN/LONG XUYÊN 2024-07-01 - 2024-07-30.xlsx
@@ -1694,7 +1694,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F29"/>
+  <dimension ref="A1:F31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2493,17 +2493,73 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>705</v>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>Trang thiết bị Y Tế</t>
+        </is>
+      </c>
+      <c r="F29" t="n">
+        <v>58000</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>CT</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>706</v>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>LONG XUYÊN</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>Chi Phí Sinh Hoạt Tại Cơ Sở</t>
+        </is>
+      </c>
+      <c r="F30" t="n">
+        <v>176000</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B29" t="n">
-        <v>27</v>
-      </c>
-      <c r="C29" t="inlineStr"/>
-      <c r="D29" t="inlineStr"/>
-      <c r="E29" t="inlineStr"/>
-      <c r="F29" t="n">
-        <v>30374000</v>
+      <c r="B31" t="n">
+        <v>29</v>
+      </c>
+      <c r="C31" t="inlineStr"/>
+      <c r="D31" t="inlineStr"/>
+      <c r="E31" t="inlineStr"/>
+      <c r="F31" t="n">
+        <v>30608000</v>
       </c>
     </row>
   </sheetData>
@@ -2975,7 +3031,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>1734000</v>
+        <v>1910000</v>
       </c>
     </row>
     <row r="5">
@@ -2995,7 +3051,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>565000</v>
+        <v>623000</v>
       </c>
     </row>
     <row r="7">
@@ -3025,7 +3081,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>30374000</v>
+        <v>30608000</v>
       </c>
     </row>
   </sheetData>
@@ -3039,7 +3095,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G22"/>
+  <dimension ref="A1:G23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3587,26 +3643,51 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
+          <t>07-28-2024</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0</v>
+      </c>
+      <c r="F22" t="n">
+        <v>234000</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-234000</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
           <t>Tổng</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B23" t="n">
         <v>48150000</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C23" t="n">
         <v>42650000</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D23" t="n">
         <v>13</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E23" t="n">
         <v>3300000</v>
       </c>
-      <c r="F22" t="n">
-        <v>30374000</v>
-      </c>
-      <c r="G22" t="n">
-        <v>15576000</v>
+      <c r="F23" t="n">
+        <v>30608000</v>
+      </c>
+      <c r="G23" t="n">
+        <v>15342000</v>
       </c>
     </row>
   </sheetData>
